--- a/ORG_CREW.xlsx
+++ b/ORG_CREW.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F16D888-6764-4E8C-8357-705DC0AD5737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A6A20-709E-4A87-8A90-C9E9DFE910D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>พวกปืนออโตเมติก</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>พวกปืนออโตเมติก ขนาด 40 ม.ม.และ 20 ม.ม.</t>
+  </si>
+  <si>
+    <t>ORG_GRAW_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_GRAW_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_GRAW_STATUS</t>
   </si>
 </sst>
 </file>
@@ -400,20 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -423,8 +432,17 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26000</v>
       </c>
@@ -435,7 +453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>26001</v>
       </c>
@@ -446,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26002</v>
       </c>
@@ -457,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26003</v>
       </c>
@@ -468,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26004</v>
       </c>
@@ -479,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26005</v>
       </c>
@@ -490,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26006</v>
       </c>
@@ -501,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26007</v>
       </c>
@@ -512,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26008</v>
       </c>
@@ -523,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26009</v>
       </c>
@@ -534,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26010</v>
       </c>
@@ -545,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26011</v>
       </c>
@@ -556,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26012</v>
       </c>
@@ -567,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26013</v>
       </c>
@@ -578,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>26014</v>
       </c>
@@ -589,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>26015</v>
       </c>
@@ -600,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>26016</v>
       </c>
@@ -611,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26017</v>
       </c>
@@ -622,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>26018</v>
       </c>
@@ -633,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>26019</v>
       </c>
@@ -644,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>26020</v>
       </c>
